--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPSourceObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_GAAPSourceObjectProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547C088D-DA8A-4916-B673-3821F06CE03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40ED8C-50D0-479A-B6B2-88EE8C75B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Keyword</t>
   </si>
@@ -151,7 +151,13 @@
     <t>Category</t>
   </si>
   <si>
-    <t xml:space="preserve"> 15 - NACUBO REVENUES </t>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>AddNewProfile_GaapSourceObjProfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 - NACUBO REVENUES PROP </t>
   </si>
 </sst>
 </file>
@@ -259,13 +265,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,16 +553,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.36328125" bestFit="1" customWidth="1"/>
@@ -595,89 +602,101 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -691,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FDA5A-72D7-458E-9F39-746AC8B4C71C}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,7 +725,7 @@
     <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -755,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
